--- a/excelData/InputCongNhan.xlsx
+++ b/excelData/InputCongNhan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -46,19 +46,19 @@
     <t>Mã tổ nhóm</t>
   </si>
   <si>
-    <t>Bùi Anh Tuấn</t>
-  </si>
-  <si>
-    <t>1995-02-02</t>
-  </si>
-  <si>
-    <t>123412341234</t>
-  </si>
-  <si>
-    <t>+84975222333</t>
-  </si>
-  <si>
-    <t>banhtuan@gmail.com</t>
+    <t>Bùi Duy Tuấn</t>
+  </si>
+  <si>
+    <t>1995-09-02</t>
+  </si>
+  <si>
+    <t>123231321334</t>
+  </si>
+  <si>
+    <t>+84972313233</t>
+  </si>
+  <si>
+    <t>duytuan@gmail.com</t>
   </si>
   <si>
     <t>Nam</t>
@@ -70,25 +70,25 @@
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>2022-11-09</t>
+    <t>2021-11-09</t>
   </si>
   <si>
     <t>PPTN100001</t>
   </si>
   <si>
-    <t>Hà Ngọc Hồ</t>
+    <t>Hà Ngọc Hồng</t>
   </si>
   <si>
     <t>1992-02-02</t>
   </si>
   <si>
-    <t>431212341324</t>
-  </si>
-  <si>
-    <t>+84975222332</t>
-  </si>
-  <si>
-    <t>hongocha@gmail.com</t>
+    <t>431888888324</t>
+  </si>
+  <si>
+    <t>+84555555532</t>
+  </si>
+  <si>
+    <t>hangochong@gmail.com</t>
   </si>
   <si>
     <t>Nữ</t>
@@ -97,55 +97,64 @@
     <t>TP.Hồ Chí Minh</t>
   </si>
   <si>
-    <t>Bùi Bích Phương</t>
-  </si>
-  <si>
-    <t>1991-02-02</t>
-  </si>
-  <si>
-    <t>432212381324</t>
-  </si>
-  <si>
-    <t>+84976332332</t>
-  </si>
-  <si>
-    <t>bichphuongvoz@gmail.com</t>
+    <t>Bùi Bích Phượng</t>
+  </si>
+  <si>
+    <t>1991-05-22</t>
+  </si>
+  <si>
+    <t>432222221324</t>
+  </si>
+  <si>
+    <t>+84976213332</t>
+  </si>
+  <si>
+    <t>bichphuong22@gmail.com</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>PPTN100003</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>1994-08-02</t>
+  </si>
+  <si>
+    <t>431444444424</t>
+  </si>
+  <si>
+    <t>+84222222222</t>
+  </si>
+  <si>
+    <t>tranthinhung112@gmail.com</t>
+  </si>
+  <si>
+    <t>congNhan2.png</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
   </si>
   <si>
     <t>PPTN100002</t>
   </si>
   <si>
-    <t>Trần Thị Nhung</t>
-  </si>
-  <si>
-    <t>1998-02-02</t>
-  </si>
-  <si>
-    <t>431212222324</t>
-  </si>
-  <si>
-    <t>+84932113332</t>
-  </si>
-  <si>
-    <t>tranthinhung22@gmail.com</t>
-  </si>
-  <si>
-    <t>congNhan2.png</t>
-  </si>
-  <si>
-    <t>Bùi Thị Hồng</t>
-  </si>
-  <si>
-    <t>1999-02-02</t>
-  </si>
-  <si>
-    <t>432222232324</t>
-  </si>
-  <si>
-    <t>+84976121332</t>
-  </si>
-  <si>
-    <t>buithihong03@gmail.com</t>
+    <t>Nguyễn Văn Vịnh</t>
+  </si>
+  <si>
+    <t>1995-02-12</t>
+  </si>
+  <si>
+    <t>431465662324</t>
+  </si>
+  <si>
+    <t>+84333331332</t>
+  </si>
+  <si>
+    <t>nguyenvanvinh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -169,24 +178,24 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,26 +638,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,11 +781,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,12 +1107,12 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5555555555556" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="22.7777777777778" customWidth="1"/>
     <col min="2" max="4" width="15.5555555555556" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.2222222222222" customWidth="1"/>
     <col min="6" max="8" width="15.5555555555556" customWidth="1"/>
@@ -1234,65 +1242,65 @@
         <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -1301,16 +1309,16 @@
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="banhtuan@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="hongocha@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId3" display="bichphuongvoz@gmail.com"/>
-    <hyperlink ref="E5" r:id="rId4" display="tranthinhung22@gmail.com" tooltip="mailto:tranthinhung22@gmail.com"/>
-    <hyperlink ref="E6" r:id="rId5" display="buithihong03@gmail.com" tooltip="mailto:buithihong03@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="duytuan@gmail.com" tooltip="mailto:duytuan@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="hangochong@gmail.com" tooltip="mailto:hangochong@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId3" display="bichphuong22@gmail.com" tooltip="mailto:bichphuong22@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId4" display="tranthinhung112@gmail.com" tooltip="mailto:tranthinhung112@gmail.com"/>
+    <hyperlink ref="E6" r:id="rId5" display="nguyenvanvinh@gmail.com" tooltip="mailto:nguyenvanvinh@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
